--- a/notes/Ranking_Stabikat.xlsx
+++ b/notes/Ranking_Stabikat.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="242">
   <si>
     <t xml:space="preserve">Nr. </t>
   </si>
@@ -463,6 +463,9 @@
   </si>
   <si>
     <t>Suchanfragen in nicht-lateinischen Schriften berücksichtigen, ggf. Kontaktaufnahme mit Sonderabt.</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
   <si>
     <t>Samuel Scheidt</t>
@@ -807,7 +810,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -816,6 +818,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -863,12 +872,6 @@
     <font>
       <b/>
       <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -947,84 +950,90 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
@@ -1036,10 +1045,10 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1350,337 +1359,337 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="17" width="4.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="18" width="62.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="18" width="57.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="21" width="4.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="20" width="62.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="20" width="57.57642857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25" customFormat="1" s="13">
       <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A2" s="3"/>
-      <c r="B2" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A2" s="4"/>
+      <c r="B2" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25" customFormat="1" s="13">
       <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A4" s="3"/>
-      <c r="B4" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="C4" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25" customFormat="1" s="13">
       <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A6" s="3"/>
-      <c r="B6" s="7" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A11" s="2"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A12" s="2"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A13" s="2"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A15" s="2"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A16" s="4"/>
+      <c r="B16" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A7" s="3"/>
-      <c r="B7" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A8" s="3"/>
-      <c r="B8" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A9" s="3"/>
-      <c r="B9" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A10" s="3"/>
-      <c r="B10" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A14" s="3"/>
-      <c r="B14" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A16" s="3"/>
-      <c r="B16" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A17" s="3"/>
-      <c r="B17" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A18" s="3"/>
-      <c r="B18" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="C18" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A19" s="3"/>
-      <c r="B19" s="29" t="s">
+      <c r="C18" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C19" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A20" s="3"/>
-      <c r="B20" s="29" t="s">
+      <c r="C19" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A21" s="3"/>
-      <c r="B21" s="7" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A22" s="3"/>
-      <c r="B22" s="7" t="s">
+      <c r="C20" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C22" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A23" s="3"/>
-      <c r="B23" s="7" t="s">
+      <c r="C21" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C23" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A24" s="3"/>
-      <c r="B24" s="7" t="s">
+      <c r="C22" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C24" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A25" s="3"/>
-      <c r="B25" s="7" t="s">
+      <c r="C23" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C25" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A26" s="3"/>
-      <c r="B26" s="7" t="s">
+      <c r="C24" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C25" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A27" s="3"/>
-      <c r="B27" s="7" t="s">
+      <c r="C26" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C27" s="24" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A28" s="3"/>
-      <c r="B28" s="30" t="s">
+      <c r="C27" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="C28" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A29" s="3"/>
-      <c r="B29" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="C29" s="7" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A28" s="4"/>
+      <c r="B28" s="32" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A30" s="3"/>
-      <c r="B30" s="7" t="s">
+      <c r="C28" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A29" s="4"/>
+      <c r="B29" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C30" s="24" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A31" s="3"/>
-      <c r="B31" s="7" t="s">
+      <c r="C30" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="C31" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A32" s="3"/>
-      <c r="B32" s="20" t="s">
+      <c r="C31" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C32" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A32" s="4"/>
+      <c r="B32" s="23" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A33" s="3"/>
-      <c r="B33" s="29" t="s">
+      <c r="C32" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A34" s="3"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25" customFormat="1" s="13">
       <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="C36" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A37" s="3"/>
-      <c r="B37" s="7" t="s">
+      <c r="A36" s="33"/>
+      <c r="B36" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="C37" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A38" s="3"/>
-      <c r="B38" s="7" t="s">
+      <c r="C36" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C37" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A39" s="3"/>
-      <c r="B39" s="7" t="s">
+      <c r="C38" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C39" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C39" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25" customFormat="1" s="13">
       <c r="A40" s="2"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A41" s="3"/>
-      <c r="B41" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+      <c r="C41" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25" customFormat="1" s="13">
       <c r="A42" s="2"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25" customFormat="1" s="13">
       <c r="A43" s="2"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A44" s="3"/>
-      <c r="B44" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="C44" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A45" s="3"/>
-      <c r="B45" s="7" t="s">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A44" s="4"/>
+      <c r="B44" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="C45" s="3"/>
+      <c r="C44" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C45" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1698,215 +1707,215 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="17" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="18" width="38.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="18" width="37.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="18" width="30.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="18" width="57.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="18" width="42.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="18" width="29.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="21" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="20" width="38.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="20" width="37.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="20" width="30.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="20" width="57.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="20" width="42.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="20" width="29.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25" customFormat="1" s="13">
       <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="D2" s="22" t="s">
+      <c r="C2" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="D2" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="E2" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="F2" s="25" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A3" s="23" t="s">
+      <c r="G2" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="24" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A3" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="C3" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="D3" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="E3" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="G3" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A4" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B4" s="24" t="s">
+      <c r="F3" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="G3" s="27"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A4" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24" t="s">
+      <c r="D4" s="4" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A5" s="23" t="s">
+      <c r="E4" s="28"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="B5" s="7" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A5" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="B5" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="C5" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A6" s="23" t="s">
+      <c r="D5" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="E5" s="28"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A6" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="B6" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="C6" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="D6" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24" t="s">
+      <c r="E6" s="28" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A7" s="23" t="s">
+      <c r="F6" s="27"/>
+      <c r="G6" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="B7" s="24" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A7" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="B7" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="C7" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A8" s="23" t="s">
+      <c r="D7" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24" t="s">
+      <c r="E7" s="28"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A8" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="27" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A10" s="26" t="s">
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A11" s="7" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A10" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B10" s="30"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A11" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A12" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A12" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A13" s="7" t="s">
+      <c r="B12" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="A13" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1924,516 +1933,518 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="16" width="3.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="17" width="8.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="17" width="66.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="17" width="82.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="18" width="43.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="17" width="23.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="18" width="55.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="17" width="3.7192857142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="18" width="8.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="21" width="66.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="19" width="82.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="20" width="43.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="19" width="23.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="20" width="55.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="4" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="4"/>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="102">
+      <c r="A3" s="6"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="7" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="4"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="88.5">
+      <c r="A4" s="6"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="7" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="4">
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="33">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="7" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="4">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="60.75">
+      <c r="A6" s="6">
         <v>2</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="4">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="184.5">
+      <c r="A7" s="6">
         <v>3</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="7" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="4">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="74.25">
+      <c r="A8" s="6">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="19" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="22" t="s">
         <v>109</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="4">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="33">
+      <c r="A9" s="6">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A10" s="13">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="102" customFormat="1" s="13">
+      <c r="A10" s="14">
         <v>6</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="7" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A11" s="13">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="33" customFormat="1" s="13">
+      <c r="A11" s="14">
         <v>7</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A12" s="13">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="88.5" customFormat="1" s="13">
+      <c r="A12" s="14">
         <v>8</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="22" t="s">
         <v>125</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A13" s="13">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="13">
+      <c r="A13" s="14">
         <v>9</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A14" s="13">
+      <c r="G13" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="33" customFormat="1" s="13">
+      <c r="A14" s="14">
         <v>10</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G14" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A15" s="13">
+      <c r="G14" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="13">
+      <c r="A15" s="14">
         <v>12</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A16" s="13">
+      <c r="G15" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="33" customFormat="1" s="13">
+      <c r="A16" s="14">
         <v>13</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="3" t="s">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A17" s="13">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5" customFormat="1" s="13">
+      <c r="A17" s="14">
         <v>14</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="C17" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="D17" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A18" s="13">
+      <c r="G17" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5" customFormat="1" s="13">
+      <c r="A18" s="14">
         <v>15</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
+      <c r="D18" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="4">
+      <c r="G18" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="6">
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="C19" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="D19" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="4">
+      <c r="G19" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="33">
+      <c r="A20" s="6">
         <v>17</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="C20" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="D20" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="E20" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="4">
+      <c r="G20" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="6">
         <v>18</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D21" s="7" t="s">
+      <c r="C21" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="2" t="s">
+      <c r="D21" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="4">
+      <c r="G21" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="6">
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22" s="7" t="s">
+      <c r="C22" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="2" t="s">
+      <c r="D22" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="4">
+      <c r="G22" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="6">
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="C23" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="D23" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G23" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="4">
+      <c r="C24" s="5"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="47.25">
+      <c r="A25" s="6">
         <v>21</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="7" t="s">
-        <v>154</v>
+      <c r="C25" s="5"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="4" t="s">
+        <v>155</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="3"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="3"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="3"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+      <c r="C29" s="5"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="3"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2451,565 +2462,565 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="16" width="4.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="17" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="17" width="42.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="17" width="84.7192857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="18" width="54.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="17" width="19.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="18" width="34.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="17" width="4.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="18" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="19" width="42.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="19" width="84.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="20" width="54.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="21" width="19.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="20" width="34.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="4" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="4"/>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="156.75">
+      <c r="A3" s="6"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="7" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="4"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="88.5">
+      <c r="A4" s="6"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="7" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="4">
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="88.5">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="7" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="4">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="33">
+      <c r="A6" s="6">
         <v>2</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="4">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="33">
+      <c r="A7" s="6">
         <v>3</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="4">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="60.75">
+      <c r="A8" s="6">
         <v>4</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="4">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="6">
         <v>5</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="4">
+      <c r="G9" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="6">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="4">
+      <c r="G10" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="6">
         <v>7</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="8">
+      <c r="G11" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="88.5">
+      <c r="A12" s="9">
         <v>8</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="4"/>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="6"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="4">
+      <c r="F13" s="5"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="280.5">
+      <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="4">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="33">
+      <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="4">
+      <c r="F15" s="5"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="47.25">
+      <c r="A16" s="6">
         <v>11</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="4">
+      <c r="G16" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="47.25">
+      <c r="A17" s="6">
         <v>12</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="4">
+      <c r="G17" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="33">
+      <c r="A18" s="6">
         <v>13</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="4">
+      <c r="G18" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="33">
+      <c r="A19" s="6">
         <v>14</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7" t="s">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G19" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="4">
+      <c r="G19" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="60.75">
+      <c r="A20" s="6">
         <v>15</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="4">
+      <c r="G20" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="47.25">
+      <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="4">
+      <c r="G21" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="88.5">
+      <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="4">
+      <c r="G22" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="33">
+      <c r="A23" s="6">
         <v>18</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G23" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="4">
+      <c r="G23" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="A24" s="6">
         <v>19</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="4">
+      <c r="G24" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="A25" s="6">
         <v>20</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A26" s="13">
+      <c r="G25" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5" customFormat="1" s="13">
+      <c r="A26" s="14">
         <v>21</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G26" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="4">
+      <c r="G26" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+      <c r="A27" s="6">
         <v>22</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="3" t="s">
+      <c r="D27" s="3"/>
+      <c r="E27" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G27" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="4">
+      <c r="G27" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="47.25">
+      <c r="A28" s="6">
         <v>23</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="3" t="s">
+      <c r="D28" s="3"/>
+      <c r="E28" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G28" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A29" s="14"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="7" t="s">
+      <c r="G28" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5" customFormat="1" s="13">
+      <c r="A29" s="15"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="7" t="s">
+      <c r="D29" s="4"/>
+      <c r="E29" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25" customFormat="1" s="12">
-      <c r="A30" s="14"/>
-      <c r="B30" s="3" t="s">
+      <c r="G29" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5" customFormat="1" s="13">
+      <c r="A30" s="15"/>
+      <c r="B30" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="7" t="s">
+      <c r="D30" s="4"/>
+      <c r="E30" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G30" s="3"/>
+      <c r="G30" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="15" t="s">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G31" s="3"/>
+      <c r="G31" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/notes/Ranking_Stabikat.xlsx
+++ b/notes/Ranking_Stabikat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Wo wollen wir hin"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="242">
   <si>
     <t xml:space="preserve">Nr. </t>
   </si>
@@ -267,6 +267,9 @@
     <t>Matomo: Title</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>history berlin / geschichte berlin</t>
   </si>
   <si>
@@ -463,9 +466,6 @@
   </si>
   <si>
     <t>Suchanfragen in nicht-lateinischen Schriften berücksichtigen, ggf. Kontaktaufnahme mit Sonderabt.</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>Samuel Scheidt</t>
@@ -1929,7 +1929,7 @@
   </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1953,19 +1953,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>5</v>
@@ -1980,7 +1980,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="8"/>
@@ -2002,17 +2002,17 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="60.75">
@@ -2021,17 +2021,17 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="184.5">
@@ -2040,17 +2040,17 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="74.25">
@@ -2061,17 +2061,17 @@
         <v>28</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="33">
@@ -2082,19 +2082,19 @@
         <v>28</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="102" customFormat="1" s="13">
@@ -2105,17 +2105,17 @@
         <v>28</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="33" customFormat="1" s="13">
@@ -2124,19 +2124,19 @@
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="88.5" customFormat="1" s="13">
@@ -2145,19 +2145,19 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="13">
@@ -2168,13 +2168,13 @@
         <v>28</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>49</v>
@@ -2189,16 +2189,16 @@
         <v>28</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G14" s="4"/>
     </row>
@@ -2210,13 +2210,13 @@
         <v>28</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>49</v>
@@ -2231,17 +2231,17 @@
         <v>28</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
         <v>49</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5" customFormat="1" s="13">
@@ -2249,7 +2249,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>139</v>
@@ -2296,7 +2296,7 @@
         <v>144</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>49</v>
@@ -2372,7 +2372,7 @@
         <v>153</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>154</v>
@@ -2458,7 +2458,7 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2949,16 +2949,18 @@
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="C27" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -2968,14 +2970,14 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -2983,11 +2985,11 @@
       <c r="A29" s="15"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>49</v>
@@ -3000,14 +3002,14 @@
         <v>28</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G30" s="4"/>
     </row>
@@ -3018,7 +3020,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
       <c r="F31" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G31" s="4"/>
     </row>

--- a/notes/Ranking_Stabikat.xlsx
+++ b/notes/Ranking_Stabikat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Wo wollen wir hin"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="242">
   <si>
     <t xml:space="preserve">Nr. </t>
   </si>
@@ -54,6 +54,9 @@
 absteigend chronologisch als erstes Relevanzkriterium, ergänzend als 2. Autor mit den meisten Publikationen im Index</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>soziale frauenschule berlin</t>
   </si>
   <si>
@@ -265,9 +268,6 @@
   </si>
   <si>
     <t>Matomo: Title</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>history berlin / geschichte berlin</t>
@@ -1929,7 +1929,7 @@
   </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2058,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>107</v>
@@ -2079,7 +2079,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>111</v>
@@ -2091,7 +2091,7 @@
         <v>105</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>113</v>
@@ -2102,7 +2102,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>114</v>
@@ -2133,7 +2133,7 @@
         <v>120</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>121</v>
@@ -2165,7 +2165,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>127</v>
@@ -2177,7 +2177,7 @@
         <v>129</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="4"/>
     </row>
@@ -2186,7 +2186,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>130</v>
@@ -2207,7 +2207,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>134</v>
@@ -2219,7 +2219,7 @@
         <v>116</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G15" s="4"/>
     </row>
@@ -2228,7 +2228,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>136</v>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>138</v>
@@ -2249,7 +2249,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>139</v>
@@ -2258,10 +2258,10 @@
         <v>140</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -2278,7 +2278,7 @@
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -2287,7 +2287,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>143</v>
@@ -2299,7 +2299,7 @@
         <v>116</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -2318,7 +2318,7 @@
         <v>147</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -2344,7 +2344,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>150</v>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -2363,7 +2363,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>152</v>
@@ -2458,7 +2458,7 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2529,19 +2529,21 @@
       <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="33">
@@ -2550,17 +2552,17 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="33">
@@ -2569,19 +2571,19 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="60.75">
@@ -2590,19 +2592,19 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
@@ -2611,16 +2613,16 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -2629,19 +2631,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -2651,16 +2653,16 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -2670,19 +2672,19 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
@@ -2690,10 +2692,10 @@
       <c r="B13" s="2"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="4"/>
@@ -2704,19 +2706,19 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="F14" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="33">
@@ -2725,13 +2727,13 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="4"/>
@@ -2742,16 +2744,16 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G16" s="4"/>
     </row>
@@ -2761,16 +2763,16 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -2780,16 +2782,16 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -2799,14 +2801,14 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -2816,16 +2818,16 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -2835,16 +2837,16 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -2854,16 +2856,16 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -2873,16 +2875,16 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -2892,16 +2894,16 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -2911,16 +2913,16 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -2929,19 +2931,19 @@
         <v>21</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="F26" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -2950,7 +2952,7 @@
         <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>78</v>
@@ -2968,7 +2970,9 @@
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C28" s="4" t="s">
         <v>81</v>
       </c>
@@ -2983,7 +2987,9 @@
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5" customFormat="1" s="13">
       <c r="A29" s="15"/>
-      <c r="B29" s="4"/>
+      <c r="B29" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="C29" s="4" t="s">
         <v>84</v>
       </c>
@@ -2992,14 +2998,14 @@
         <v>85</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G29" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5" customFormat="1" s="13">
       <c r="A30" s="15"/>
       <c r="B30" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>86</v>

--- a/notes/Ranking_Stabikat.xlsx
+++ b/notes/Ranking_Stabikat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Wo wollen wir hin"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="242">
   <si>
     <t xml:space="preserve">Nr. </t>
   </si>
@@ -801,7 +801,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -812,12 +812,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -950,84 +944,78 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -1036,19 +1024,19 @@
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1359,337 +1347,337 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="21" width="4.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="20" width="62.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="20" width="57.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="19" width="4.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="17" width="62.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="17" width="57.57642857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25" customFormat="1" s="13">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25" customFormat="1" s="12">
       <c r="A1" s="2"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25" customFormat="1" s="13">
-      <c r="A2" s="4"/>
-      <c r="B2" s="8" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25" customFormat="1" s="12">
+      <c r="A2" s="2"/>
+      <c r="B2" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="C2" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25" customFormat="1" s="12">
       <c r="A3" s="2"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25" customFormat="1" s="13">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25" customFormat="1" s="12">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25" customFormat="1" s="13">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25" customFormat="1" s="12">
       <c r="A5" s="2"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25" customFormat="1" s="13">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25" customFormat="1" s="12">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25" customFormat="1" s="13">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4" t="s">
+      <c r="C6" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25" customFormat="1" s="12">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25" customFormat="1" s="13">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25" customFormat="1" s="12">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25" customFormat="1" s="13">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25" customFormat="1" s="12">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25" customFormat="1" s="13">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25" customFormat="1" s="12">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="C10" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25" customFormat="1" s="12">
       <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25" customFormat="1" s="12">
       <c r="A12" s="2"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25" customFormat="1" s="12">
       <c r="A13" s="2"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25" customFormat="1" s="13">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25" customFormat="1" s="12">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25" customFormat="1" s="13">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25" customFormat="1" s="12">
       <c r="A15" s="2"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25" customFormat="1" s="13">
-      <c r="A16" s="4"/>
-      <c r="B16" s="31" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25" customFormat="1" s="12">
+      <c r="A16" s="2"/>
+      <c r="B16" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="C16" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25" customFormat="1" s="13">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4" t="s">
+      <c r="C16" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25" customFormat="1" s="12">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25" customFormat="1" s="13">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25" customFormat="1" s="12">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25" customFormat="1" s="13">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25" customFormat="1" s="12">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25" customFormat="1" s="13">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25" customFormat="1" s="12">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25" customFormat="1" s="13">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25" customFormat="1" s="12">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C21" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25" customFormat="1" s="13">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4" t="s">
+      <c r="C21" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25" customFormat="1" s="12">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C22" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25" customFormat="1" s="13">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4" t="s">
+      <c r="C22" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25" customFormat="1" s="12">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C23" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25" customFormat="1" s="13">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4" t="s">
+      <c r="C23" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25" customFormat="1" s="12">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C24" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25" customFormat="1" s="13">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4" t="s">
+      <c r="C24" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25" customFormat="1" s="12">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C25" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25" customFormat="1" s="13">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4" t="s">
+      <c r="C25" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25" customFormat="1" s="12">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25" customFormat="1" s="13">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25" customFormat="1" s="12">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="25" t="s">
         <v>223</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25" customFormat="1" s="13">
-      <c r="A28" s="4"/>
-      <c r="B28" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25" customFormat="1" s="12">
+      <c r="A28" s="2"/>
+      <c r="B28" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="C28" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25" customFormat="1" s="13">
-      <c r="A29" s="4"/>
-      <c r="B29" s="27" t="s">
+      <c r="C28" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25" customFormat="1" s="12">
+      <c r="A29" s="2"/>
+      <c r="B29" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25" customFormat="1" s="13">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25" customFormat="1" s="12">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="25" t="s">
         <v>227</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25" customFormat="1" s="13">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25" customFormat="1" s="12">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25" customFormat="1" s="13">
-      <c r="A32" s="4"/>
-      <c r="B32" s="23" t="s">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25" customFormat="1" s="12">
+      <c r="A32" s="2"/>
+      <c r="B32" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25" customFormat="1" s="13">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25" customFormat="1" s="12">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25" customFormat="1" s="13">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25" customFormat="1" s="13">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25" customFormat="1" s="12">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25" customFormat="1" s="12">
       <c r="A35" s="2"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
-      <c r="A36" s="33"/>
-      <c r="B36" s="12" t="s">
+      <c r="A36" s="31"/>
+      <c r="B36" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="C36" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25" customFormat="1" s="13">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4" t="s">
+      <c r="C36" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25" customFormat="1" s="12">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C37" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25" customFormat="1" s="13">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4" t="s">
+      <c r="C37" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25" customFormat="1" s="12">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25" customFormat="1" s="13">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25" customFormat="1" s="12">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C39" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="C39" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25" customFormat="1" s="12">
       <c r="A40" s="2"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25" customFormat="1" s="13">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4" t="s">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25" customFormat="1" s="12">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25" customFormat="1" s="13">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25" customFormat="1" s="12">
       <c r="A42" s="2"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25" customFormat="1" s="13">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25" customFormat="1" s="12">
       <c r="A43" s="2"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25" customFormat="1" s="13">
-      <c r="A44" s="4"/>
-      <c r="B44" s="8" t="s">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25" customFormat="1" s="12">
+      <c r="A44" s="2"/>
+      <c r="B44" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C44" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25" customFormat="1" s="13">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4" t="s">
+      <c r="C44" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25" customFormat="1" s="12">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C45" s="4"/>
+      <c r="C45" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1707,215 +1695,215 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="21" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="20" width="38.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="20" width="37.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="20" width="30.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="20" width="57.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="20" width="42.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="20" width="29.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="19" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="17" width="38.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="17" width="37.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="17" width="30.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="17" width="57.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="17" width="42.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="17" width="29.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25" customFormat="1" s="13">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25" customFormat="1" s="12">
       <c r="A1" s="2"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="23" t="s">
         <v>161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25" customFormat="1" s="13">
-      <c r="A3" s="26" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25" customFormat="1" s="12">
+      <c r="A3" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="G3" s="27"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25" customFormat="1" s="13">
-      <c r="A4" s="26" t="s">
+      <c r="G3" s="25"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25" customFormat="1" s="12">
+      <c r="A4" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27" t="s">
+      <c r="E4" s="26"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25" t="s">
         <v>171</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25" customFormat="1" s="13">
-      <c r="A5" s="26" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25" customFormat="1" s="12">
+      <c r="A5" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27" t="s">
+      <c r="E5" s="26"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25" t="s">
         <v>171</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25" customFormat="1" s="13">
-      <c r="A6" s="26" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25" customFormat="1" s="12">
+      <c r="A6" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27" t="s">
+      <c r="F6" s="25"/>
+      <c r="G6" s="25" t="s">
         <v>181</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25" customFormat="1" s="13">
-      <c r="A7" s="26" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25" customFormat="1" s="12">
+      <c r="A7" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25" customFormat="1" s="13">
-      <c r="A8" s="26" t="s">
+      <c r="E7" s="26"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25" customFormat="1" s="12">
+      <c r="A8" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27" t="s">
+      <c r="D8" s="25"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25" t="s">
         <v>188</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25" customFormat="1" s="13">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25" customFormat="1" s="13">
-      <c r="A10" s="29" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25" customFormat="1" s="12">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25" customFormat="1" s="12">
+      <c r="A10" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25" customFormat="1" s="13">
-      <c r="A11" s="4" t="s">
+      <c r="B10" s="28"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25" customFormat="1" s="12">
+      <c r="A11" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25" customFormat="1" s="13">
-      <c r="A12" s="4" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25" customFormat="1" s="12">
+      <c r="A12" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25" customFormat="1" s="13">
-      <c r="A13" s="4" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25" customFormat="1" s="12">
+      <c r="A13" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1929,522 +1917,528 @@
   </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="17" width="3.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="18" width="8.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="21" width="66.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="19" width="82.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="20" width="43.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="19" width="23.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="20" width="55.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="16" width="3.7192857142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="17" width="8.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="19" width="66.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="18" width="82.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="17" width="43.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="18" width="23.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="17" width="55.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="5"/>
+      <c r="C1" s="4"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="E1" s="2"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="6" t="s">
+      <c r="G1" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="33">
+      <c r="A2" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="102">
-      <c r="A3" s="6"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="88.5">
-      <c r="A4" s="6"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="4" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="33">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>97</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="60.75">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="184.5">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="74.25">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>109</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="20" t="s">
         <v>110</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="33">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="102" customFormat="1" s="13">
-      <c r="A10" s="14">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="102" customFormat="1" s="12">
+      <c r="A10" s="13">
         <v>6</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="33" customFormat="1" s="13">
-      <c r="A11" s="14">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="33" customFormat="1" s="12">
+      <c r="A11" s="13">
         <v>7</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="88.5" customFormat="1" s="13">
-      <c r="A12" s="14">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="88.5" customFormat="1" s="12">
+      <c r="A12" s="13">
         <v>8</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="20" t="s">
         <v>126</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="13">
-      <c r="A13" s="14">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="12">
+      <c r="A13" s="13">
         <v>9</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="33" customFormat="1" s="13">
-      <c r="A14" s="14">
+      <c r="G13" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="33" customFormat="1" s="12">
+      <c r="A14" s="13">
         <v>10</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="13">
-      <c r="A15" s="14">
+      <c r="G14" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="12">
+      <c r="A15" s="13">
         <v>12</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="33" customFormat="1" s="13">
-      <c r="A16" s="14">
+      <c r="G15" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="33" customFormat="1" s="12">
+      <c r="A16" s="13">
         <v>13</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5" customFormat="1" s="13">
-      <c r="A17" s="14">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5" customFormat="1" s="12">
+      <c r="A17" s="13">
         <v>14</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5" customFormat="1" s="13">
-      <c r="A18" s="14">
+      <c r="G17" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5" customFormat="1" s="12">
+      <c r="A18" s="13">
         <v>15</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4" t="s">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="2" t="s">
         <v>116</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="33">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>17</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="21" t="s">
         <v>147</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>18</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="2"/>
       <c r="F21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="G21" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="2"/>
       <c r="F22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="2" t="s">
         <v>129</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="5"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
+      <c r="E24" s="2"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="4"/>
+      <c r="G24" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="47.25">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>21</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="5"/>
+      <c r="C25" s="4"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
+      <c r="E25" s="2"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="5"/>
+      <c r="C26" s="4"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
+      <c r="E26" s="2"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="4"/>
+      <c r="G26" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="5"/>
+      <c r="C27" s="4"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="4"/>
+      <c r="E27" s="2"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="4"/>
+      <c r="G27" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="5"/>
+      <c r="C28" s="4"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
+      <c r="E28" s="2"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="4"/>
+      <c r="G28" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="5"/>
+      <c r="C29" s="4"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
+      <c r="E29" s="2"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="4"/>
+      <c r="G29" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="7"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="4"/>
+      <c r="E30" s="2"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="4"/>
+      <c r="G30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2458,17 +2452,17 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="17" width="4.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="18" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="19" width="42.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="19" width="84.7192857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="20" width="54.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="21" width="19.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="20" width="34.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="16" width="4.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="17" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="18" width="42.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="18" width="84.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="17" width="54.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="19" width="19.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="17" width="34.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -2476,559 +2470,569 @@
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="4"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="156.75">
-      <c r="A3" s="6"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="88.5">
-      <c r="A4" s="6"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="4" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="88.5">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="33">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="33">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="60.75">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>5</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="88.5">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>8</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="6"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="280.5">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>9</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="33">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>10</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="47.25">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>11</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="47.25">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>12</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="33">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>13</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="33">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>14</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4" t="s">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="60.75">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>15</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="47.25">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>16</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="G21" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="88.5">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>17</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="4" t="s">
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="33">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>18</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>19</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>20</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5" customFormat="1" s="13">
-      <c r="A26" s="14">
+      <c r="G25" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5" customFormat="1" s="12">
+      <c r="A26" s="13">
         <v>21</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G26" s="4"/>
+      <c r="G26" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D27" s="3"/>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G27" s="4"/>
+      <c r="G27" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="47.25">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D28" s="3"/>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G28" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5" customFormat="1" s="13">
-      <c r="A29" s="15"/>
-      <c r="B29" s="4" t="s">
+      <c r="G28" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5" customFormat="1" s="12">
+      <c r="A29" s="14"/>
+      <c r="B29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4" t="s">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G29" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5" customFormat="1" s="13">
-      <c r="A30" s="15"/>
-      <c r="B30" s="4" t="s">
+      <c r="G29" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5" customFormat="1" s="12">
+      <c r="A30" s="14"/>
+      <c r="B30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4" t="s">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G30" s="4"/>
+      <c r="G30" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="16" t="s">
+      <c r="E31" s="2"/>
+      <c r="F31" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="G31" s="4"/>
+      <c r="G31" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/notes/Ranking_Stabikat.xlsx
+++ b/notes/Ranking_Stabikat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Wo wollen wir hin"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="242">
   <si>
     <t xml:space="preserve">Nr. </t>
   </si>
@@ -1917,7 +1917,7 @@
   </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2114,7 +2114,9 @@
       <c r="A11" s="13">
         <v>7</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C11" s="2" t="s">
         <v>118</v>
       </c>
@@ -2301,7 +2303,9 @@
       <c r="A20" s="5">
         <v>17</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C20" s="2" t="s">
         <v>145</v>
       </c>
@@ -2452,7 +2456,7 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2544,7 +2548,9 @@
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
@@ -2586,7 +2592,9 @@
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
@@ -2607,7 +2615,9 @@
       <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
@@ -2668,7 +2678,9 @@
       <c r="A12" s="8">
         <v>8</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C12" s="9" t="s">
         <v>35</v>
       </c>
@@ -2725,7 +2737,9 @@
       <c r="A15" s="5">
         <v>10</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C15" s="2" t="s">
         <v>44</v>
       </c>
@@ -2742,7 +2756,9 @@
       <c r="A16" s="5">
         <v>11</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C16" s="2" t="s">
         <v>47</v>
       </c>
@@ -2761,7 +2777,9 @@
       <c r="A17" s="5">
         <v>12</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C17" s="2" t="s">
         <v>51</v>
       </c>
@@ -2780,7 +2798,9 @@
       <c r="A18" s="5">
         <v>13</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C18" s="2" t="s">
         <v>54</v>
       </c>
@@ -2818,7 +2838,9 @@
       <c r="A20" s="5">
         <v>15</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C20" s="2" t="s">
         <v>60</v>
       </c>
@@ -2837,7 +2859,9 @@
       <c r="A21" s="5">
         <v>16</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C21" s="2" t="s">
         <v>63</v>
       </c>
@@ -2877,7 +2901,9 @@
       <c r="A23" s="5">
         <v>18</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C23" s="2" t="s">
         <v>68</v>
       </c>
@@ -2896,7 +2922,9 @@
       <c r="A24" s="5">
         <v>19</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C24" s="2" t="s">
         <v>70</v>
       </c>
@@ -2915,7 +2943,9 @@
       <c r="A25" s="5">
         <v>20</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C25" s="2" t="s">
         <v>72</v>
       </c>

--- a/notes/Ranking_Stabikat.xlsx
+++ b/notes/Ranking_Stabikat.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="242">
   <si>
     <t xml:space="preserve">Nr. </t>
   </si>
@@ -2324,7 +2324,9 @@
       <c r="A21" s="5">
         <v>18</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C21" s="2" t="s">
         <v>148</v>
       </c>

--- a/notes/Ranking_Stabikat.xlsx
+++ b/notes/Ranking_Stabikat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Wo wollen wir hin"/>
@@ -1917,7 +1917,7 @@
   </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="4"/>
@@ -2401,7 +2401,7 @@
         <v>155</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="4"/>
@@ -2410,7 +2410,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="4"/>
@@ -2419,7 +2419,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="4"/>
@@ -2458,7 +2458,7 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
